--- a/excel/供应链汇总2023-10-23.xlsx
+++ b/excel/供应链汇总2023-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,21 @@
           <t>日期</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>产品名称2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>平台名称2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +479,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>上海中振交通装备有限公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>上海中振</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +509,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>上海电气研砼建筑科技集团有限公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>上海电气研砼</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +539,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>瑞e仓</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>上海中钢供应链有限公司</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>中钢</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +569,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>瑞e惠</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>云度新能源汽车有限公司</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>云度汽车</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +599,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>瑞e险</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>熠瑞合（上海）供应链管理有限公司</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>壹链盟</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +629,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>瑞e订</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>上海大展懿杰建设科技有限公司</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>大展</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +659,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>瑞e惠</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>平安普惠融资担保公司</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>平安普惠</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +689,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>瑞e惠</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>恒洁卫浴集团有限公司</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>恒洁卫浴</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +719,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>瑞e惠</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>磁金融</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>磁金融</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +749,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>江西联创光电科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>联创光电</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +779,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>远东智慧能源股份有限公司</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>远东</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +809,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>瑞e订</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>钰翔环保供应链管理（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>钰翔</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +839,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>银江技术股份有限公司</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>银江</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +869,21 @@
           <t>2023-10-23</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>瑞e惠</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>锱云（上海）物联网科技有限公司</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>锱云</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -672,6 +897,21 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>龙元供应链管理有限公司</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>龙元建设</t>
         </is>
       </c>
     </row>
